--- a/progress/3.20.xlsx
+++ b/progress/3.20.xlsx
@@ -757,5 +757,6 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/progress/3.20.xlsx
+++ b/progress/3.20.xlsx
@@ -169,7 +169,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未完成</t>
+    <t>StoreInfoControllerTest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,7 +584,7 @@
   <dimension ref="A2:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/progress/3.20.xlsx
+++ b/progress/3.20.xlsx
@@ -165,11 +165,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>只做了订单时间范围统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>StoreInfoControllerTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成按照日期查询订单，差按照地区统计订单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -623,7 +623,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -631,7 +631,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">

--- a/progress/3.20.xlsx
+++ b/progress/3.20.xlsx
@@ -169,7 +169,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成按照日期查询订单，差按照地区统计订单</t>
+    <t>OrderStatisticsControllerTest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,7 +584,7 @@
   <dimension ref="A2:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
